--- a/colour.xlsx
+++ b/colour.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>43464B</t>
   </si>
@@ -171,13 +171,18 @@
     <t>#464b51
 rgb(70, 75, 81)
 hsl(213, 7%, 30%)</t>
+  </si>
+  <si>
+    <t>#2f3337
+rgb(47, 51, 55)
+hsl(210, 8%, 20%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +231,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC1100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F3337"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,6 +499,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2F3337"/>
       <color rgb="FFCC1100"/>
       <color rgb="FFFF7F24"/>
       <color rgb="FFFFB52A"/>
@@ -487,7 +509,6 @@
       <color rgb="FFD33EBD"/>
       <color rgb="FFBF80FF"/>
       <color rgb="FFFF3300"/>
-      <color rgb="FFE600AC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -521,7 +542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -627,7 +648,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -662,7 +682,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,14 +857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="47" style="9" customWidth="1"/>
@@ -855,7 +874,7 @@
     <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -863,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30.75" customHeight="1">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -875,7 +894,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30.75" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -887,8 +906,10 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:11" ht="30.75" customHeight="1">
+      <c r="B4" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -899,7 +920,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30.75" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -911,7 +932,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30.75" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>44</v>
       </c>
@@ -925,7 +946,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
@@ -951,7 +972,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30.75" customHeight="1">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -963,7 +984,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30.75" customHeight="1">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -975,7 +996,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30.75" customHeight="1">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -987,7 +1008,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30.75" customHeight="1">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -999,7 +1020,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30.75" customHeight="1">
       <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1038,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30.75" customHeight="1">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -1029,7 +1050,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30.75" customHeight="1">
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1041,7 +1062,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30.75" customHeight="1">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1053,7 +1074,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30.75" customHeight="1">
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1065,7 +1086,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30.75" customHeight="1">
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1077,37 +1098,37 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30.75" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30.75" customHeight="1">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30.75" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30.75" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="30.75" customHeight="1">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="30.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>8</v>
       </c>
@@ -1115,68 +1136,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30.75" customHeight="1">
       <c r="B32" s="2"/>
       <c r="G32" s="15"/>
       <c r="H32" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="30.75" customHeight="1">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="30.75" customHeight="1">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="30.75" customHeight="1">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="30.75" customHeight="1">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="30.75" customHeight="1">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="30.75" customHeight="1">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="30.75" customHeight="1">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="30.75" customHeight="1">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="30.75" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="30.75" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="30.75" customHeight="1">
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="30.75" customHeight="1">
       <c r="B49" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="30.75" customHeight="1">
       <c r="B51" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="30.75" customHeight="1">
       <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="30.75" customHeight="1">
       <c r="B56" s="10" t="s">
         <v>7</v>
       </c>
@@ -1193,31 +1214,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="M2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:16">
       <c r="M2" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="13:16">
       <c r="M3" t="s">
         <v>19</v>
       </c>
@@ -1239,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:16">
       <c r="M4" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="13:16">
       <c r="M5" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:16">
       <c r="M6" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:16">
       <c r="M7" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:16">
       <c r="M8" t="s">
         <v>19</v>
       </c>
@@ -1294,7 +1315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:16">
       <c r="M9" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="13:16">
       <c r="M10" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="13:16">
       <c r="M11" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="13:16">
       <c r="M12" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:16">
       <c r="M13" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="13:16">
       <c r="M14" t="s">
         <v>19</v>
       </c>
@@ -1369,7 +1390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="13:16">
       <c r="M15" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="13:16">
       <c r="M16" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:16">
       <c r="M17" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:16">
       <c r="M18" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:16">
       <c r="M19" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:16">
       <c r="M20" t="s">
         <v>19</v>
       </c>
@@ -1450,12 +1471,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:16">
       <c r="M21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:16">
       <c r="M22" t="s">
         <v>18</v>
       </c>
